--- a/Predictors.xlsx
+++ b/Predictors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shauna\Documents\DataScience\Prospectus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84131779-EFE8-4E0C-81AB-FA5020E0509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9542BAAA-F341-4DFC-BAFD-344A53C7020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{848A8374-AB8F-4A23-920A-30BDEA5D1C84}"/>
+    <workbookView xWindow="-26265" yWindow="90" windowWidth="21600" windowHeight="11385" xr2:uid="{848A8374-AB8F-4A23-920A-30BDEA5D1C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Latest available assessment / contact information</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Static/semi-static information</t>
   </si>
   <si>
-    <t>Mental health acuity scores (e.g., depression, anxiety, internalizing, externalizing etc.)</t>
-  </si>
-  <si>
     <t>Age, gender, school district</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Identified symptoms</t>
   </si>
   <si>
-    <t>Previously indicated need (CHAMPS)</t>
-  </si>
-  <si>
     <t>Weeks since first contact</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Weeks since referral</t>
   </si>
   <si>
-    <t>Recent contact with CAS</t>
-  </si>
-  <si>
     <t>Count based</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>Recent diagnosis</t>
   </si>
   <si>
-    <t>Identified risks such as substance use, self-harm or suicide risk</t>
-  </si>
-  <si>
     <t>Current caregiver and family support</t>
   </si>
   <si>
@@ -166,6 +151,24 @@
   </si>
   <si>
     <t>Regression (linear &amp; multivariable logistic)</t>
+  </si>
+  <si>
+    <t>Latest contact</t>
+  </si>
+  <si>
+    <t>Depression acuity score</t>
+  </si>
+  <si>
+    <t>Identified substance use</t>
+  </si>
+  <si>
+    <t>Identified thoughts of suicide</t>
+  </si>
+  <si>
+    <t>Previously indicated risk</t>
+  </si>
+  <si>
+    <t>Recent contact with child welfare</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{193A4506-2911-486A-896F-49DD9B22CD0F}" name="Time based"/>
     <tableColumn id="4" xr3:uid="{69BCD9CD-78A3-4F24-AD3D-444C71553C71}" name="Count based"/>
-    <tableColumn id="2" xr3:uid="{D3BEB3C5-48B0-4E1A-9A26-277611373DFF}" name="Latest available assessment / contact information"/>
+    <tableColumn id="2" xr3:uid="{D3BEB3C5-48B0-4E1A-9A26-277611373DFF}" name="Latest contact"/>
     <tableColumn id="3" xr3:uid="{DBC5AE02-64FA-468A-8F67-6071B59B6E47}" name="Static/semi-static information"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397262A5-6740-4C5D-9F43-2D6908751360}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,131 +579,134 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03786BB-75B4-434A-8F61-994F61156167}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -728,40 +734,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
